--- a/new_table.xlsx
+++ b/new_table.xlsx
@@ -1022,163 +1022,163 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.285714285714286</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="C2" t="n">
-        <v>1.777777777777778</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="D2" t="n">
-        <v>1.6</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="E2" t="n">
-        <v>1.454545454545455</v>
+        <v>0.6875</v>
       </c>
       <c r="F2" t="n">
-        <v>1.333333333333333</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="G2" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="B3" t="n">
-        <v>1.777777777777778</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="C3" t="n">
-        <v>1.6</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="D3" t="n">
-        <v>1.454545454545455</v>
+        <v>0.6875</v>
       </c>
       <c r="E3" t="n">
-        <v>1.333333333333333</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="F3" t="n">
-        <v>1.230769230769231</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="G3" t="n">
-        <v>1.666666666666667</v>
+        <v>3.333333333333333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.777777777777778</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="B4" t="n">
-        <v>1.6</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C4" t="n">
-        <v>1.454545454545455</v>
+        <v>0.6875</v>
       </c>
       <c r="D4" t="n">
-        <v>1.333333333333333</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="E4" t="n">
-        <v>1.230769230769231</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="F4" t="n">
-        <v>1.142857142857143</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="G4" t="n">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.6</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="B5" t="n">
-        <v>1.454545454545455</v>
+        <v>0.6875</v>
       </c>
       <c r="C5" t="n">
-        <v>1.333333333333333</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="D5" t="n">
-        <v>1.230769230769231</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="E5" t="n">
-        <v>1.142857142857143</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="F5" t="n">
-        <v>1.066666666666667</v>
+        <v>0.55</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.454545454545455</v>
+        <v>0.6875</v>
       </c>
       <c r="B6" t="n">
-        <v>1.333333333333333</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C6" t="n">
-        <v>1.230769230769231</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="D6" t="n">
-        <v>1.142857142857143</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="E6" t="n">
-        <v>1.066666666666667</v>
+        <v>0.55</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8333333333333334</v>
+        <v>1.666666666666667</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.333333333333333</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="B7" t="n">
-        <v>1.230769230769231</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C7" t="n">
-        <v>1.142857142857143</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="D7" t="n">
-        <v>1.066666666666667</v>
+        <v>0.55</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9411764705882353</v>
+        <v>0.5</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7142857142857143</v>
+        <v>1.428571428571429</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.285714285714286</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="C9" t="n">
-        <v>1.777777777777778</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="D9" t="n">
-        <v>1.6</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="E9" t="n">
-        <v>1.454545454545455</v>
+        <v>0.6875</v>
       </c>
       <c r="F9" t="n">
-        <v>1.333333333333333</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="G9" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1186,22 +1186,43 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>0.02777777777777768</v>
+        <v>0.004649196956889257</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04444444444444473</v>
+        <v>0.00805860805860803</v>
       </c>
       <c r="D10" t="n">
-        <v>0.05454545454545445</v>
+        <v>0.01057692307692304</v>
       </c>
       <c r="E10" t="n">
-        <v>0.06060606060606055</v>
+        <v>0.01244343891402711</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06410256410256432</v>
+        <v>0.01382604323780789</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.5208333333333333</v>
+        <v>-1.282051282051282</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.8461538461538461</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1209,22 +1230,43 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>0.04444444444444451</v>
+        <v>0.008058608058607919</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07182940516273861</v>
+        <v>0.01403061224489788</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0888888888888888</v>
+        <v>0.01848739495798324</v>
       </c>
       <c r="E11" t="n">
-        <v>0.09945609945609957</v>
+        <v>0.02182539682539686</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1058201058201058</v>
+        <v>0.02432551968155683</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.6944444444444444</v>
+        <v>-1.785714285714286</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.004649196956889257</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.00805860805860803</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.01057692307692304</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.01244343891402711</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.01382604323780789</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-1.282051282051282</v>
       </c>
     </row>
     <row r="12">
@@ -1232,22 +1274,43 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>0.05454545454545445</v>
+        <v>0.01057692307692315</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0888888888888888</v>
+        <v>0.01848739495798324</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1107692307692307</v>
+        <v>0.0244444444444446</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1246753246753245</v>
+        <v>0.02894736842105272</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.0323529411764707</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.7500000000000002</v>
+        <v>-2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>6.235827664417652e-05</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.0001540616246502556</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.0002567693744168799</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.0003603780693568516</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.4365079365079017</v>
       </c>
     </row>
     <row r="13">
@@ -1255,22 +1318,43 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>0.06060606060606033</v>
+        <v>0.01244343891402722</v>
       </c>
       <c r="C13" t="n">
-        <v>0.09945609945609934</v>
+        <v>0.02182539682539686</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1246753246753245</v>
+        <v>0.02894736842105272</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1410468319559227</v>
+        <v>0.03437500000000004</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1515151515151514</v>
+        <v>0.03851540616246496</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.7575757575757579</v>
+        <v>-2.083333333333333</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-1.734723475976807e-18</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.321607074509081e-06</v>
+      </c>
+      <c r="N13" t="n">
+        <v>4.17349602472466e-06</v>
+      </c>
+      <c r="O13" t="n">
+        <v>8.346992049342201e-06</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-0.1617647058786917</v>
       </c>
     </row>
     <row r="14">
@@ -1278,45 +1362,89 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0641025641025641</v>
+        <v>0.01382604323780801</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1058201058201058</v>
+        <v>0.02432551968155683</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1333333333333332</v>
+        <v>0.03235294117647058</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1515151515151515</v>
+        <v>0.03851540616246496</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1633986928104575</v>
+        <v>0.04325259515570928</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.7440476190476192</v>
+        <v>-2.100840336134454</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>5.47807413385544e-18</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3.660961466977027e-08</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.394651981206457e-07</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.06148950800282804</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-9.91270546071597e-18</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.207492205053604e-09</v>
+      </c>
+      <c r="P15" t="n">
+        <v>-0.0234245731045081</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2.285714285714286</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="C17" t="n">
-        <v>1.777777777777778</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="D17" t="n">
-        <v>1.6</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="E17" t="n">
-        <v>1.454545454545455</v>
+        <v>0.6875</v>
       </c>
       <c r="F17" t="n">
-        <v>1.333333333333333</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="G17" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1324,22 +1452,22 @@
         <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>0.02777777777777768</v>
+        <v>0.004649196956889257</v>
       </c>
       <c r="C18" t="n">
-        <v>0.04444444444444473</v>
+        <v>0.00805860805860803</v>
       </c>
       <c r="D18" t="n">
-        <v>0.05454545454545445</v>
+        <v>0.01057692307692304</v>
       </c>
       <c r="E18" t="n">
-        <v>0.06060606060606055</v>
+        <v>0.01244343891402711</v>
       </c>
       <c r="F18" t="n">
-        <v>0.06410256410256432</v>
+        <v>0.01382604323780789</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.5208333333333333</v>
+        <v>-1.282051282051282</v>
       </c>
     </row>
     <row r="19">
@@ -1350,19 +1478,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0007182940516266834</v>
+        <v>6.235827664417652e-05</v>
       </c>
       <c r="D19" t="n">
-        <v>0.001616161616161224</v>
+        <v>0.0001540616246502556</v>
       </c>
       <c r="E19" t="n">
-        <v>0.002486402486402195</v>
+        <v>0.0002567693744168799</v>
       </c>
       <c r="F19" t="n">
-        <v>0.003256003256002379</v>
+        <v>0.0003603780693568516</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1388888888888931</v>
+        <v>0.4365079365079017</v>
       </c>
     </row>
     <row r="20">
@@ -1373,19 +1501,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001616161616160808</v>
+        <v>0.0001540616246498115</v>
       </c>
       <c r="D20" t="n">
-        <v>0.003661792752701801</v>
+        <v>0.0003819444444444764</v>
       </c>
       <c r="E20" t="n">
-        <v>0.005667060212514466</v>
+        <v>0.0006385448916408111</v>
       </c>
       <c r="F20" t="n">
-        <v>0.007459207459206779</v>
+        <v>0.0008986928104574576</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2727272727272743</v>
+        <v>0.9166666666666932</v>
       </c>
     </row>
     <row r="21">
@@ -1396,19 +1524,19 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.002486402486401862</v>
+        <v>0.0002567693744163907</v>
       </c>
       <c r="D21" t="n">
-        <v>0.00566706021251491</v>
+        <v>0.0006385448916408562</v>
       </c>
       <c r="E21" t="n">
-        <v>0.008815426997245301</v>
+        <v>0.001070501730103736</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0116550116550112</v>
+        <v>0.001510408084802392</v>
       </c>
       <c r="G21" t="n">
-        <v>0.378787878787877</v>
+        <v>1.3480392156863</v>
       </c>
     </row>
     <row r="22">
@@ -1419,42 +1547,42 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.003256003256002241</v>
+        <v>0.0003603780693563312</v>
       </c>
       <c r="D22" t="n">
-        <v>0.007459207459207112</v>
+        <v>0.0008986928104574299</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01165501165501129</v>
+        <v>0.001510408084802427</v>
       </c>
       <c r="F22" t="n">
-        <v>0.01546969872761625</v>
+        <v>0.002135930624973137</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4578754578754617</v>
+        <v>1.711795829442912</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2.285714285714286</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="C25" t="n">
-        <v>1.777777777777778</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="D25" t="n">
-        <v>1.6</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="E25" t="n">
-        <v>1.454545454545455</v>
+        <v>0.6875</v>
       </c>
       <c r="F25" t="n">
-        <v>1.333333333333333</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="G25" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
@@ -1462,22 +1590,22 @@
         <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>0.02777777777777768</v>
+        <v>0.004649196956889257</v>
       </c>
       <c r="C26" t="n">
-        <v>0.04444444444444473</v>
+        <v>0.00805860805860803</v>
       </c>
       <c r="D26" t="n">
-        <v>0.05454545454545445</v>
+        <v>0.01057692307692304</v>
       </c>
       <c r="E26" t="n">
-        <v>0.06060606060606055</v>
+        <v>0.01244343891402711</v>
       </c>
       <c r="F26" t="n">
-        <v>0.06410256410256432</v>
+        <v>0.01382604323780789</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.5208333333333333</v>
+        <v>-1.282051282051282</v>
       </c>
     </row>
     <row r="27">
@@ -1488,19 +1616,19 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0007182940516266834</v>
+        <v>6.235827664417652e-05</v>
       </c>
       <c r="D27" t="n">
-        <v>0.001616161616161224</v>
+        <v>0.0001540616246502556</v>
       </c>
       <c r="E27" t="n">
-        <v>0.002486402486402195</v>
+        <v>0.0002567693744168799</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003256003256002379</v>
+        <v>0.0003603780693568516</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1388888888888931</v>
+        <v>0.4365079365079017</v>
       </c>
     </row>
     <row r="28">
@@ -1514,16 +1642,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>2.542911633731304e-05</v>
+        <v>1.321607074509081e-06</v>
       </c>
       <c r="E28" t="n">
-        <v>7.265461810686095e-05</v>
+        <v>4.17349602472466e-06</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0001332001331979336</v>
+        <v>8.346992049342201e-06</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.03977272727288406</v>
+        <v>-0.1617647058786917</v>
       </c>
     </row>
     <row r="29">
@@ -1537,16 +1665,16 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>7.265461810661376e-05</v>
+        <v>4.173496024149816e-06</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0002086491596929967</v>
+        <v>1.32160707434349e-05</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0003842311534563297</v>
+        <v>2.649838745531264e-05</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.101981351981717</v>
+        <v>-0.4493464052229419</v>
       </c>
     </row>
     <row r="30">
@@ -1560,39 +1688,39 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0001332001331966915</v>
+        <v>8.346992048033786e-06</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0003842311534553826</v>
+        <v>2.649838745466299e-05</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0007103433089143303</v>
+        <v>5.32503479948182e-05</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.1717032967037304</v>
+        <v>-0.8108506560436965</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2.285714285714286</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="B33" t="n">
-        <v>2</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="C33" t="n">
-        <v>1.777777777777778</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="D33" t="n">
-        <v>1.6</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="E33" t="n">
-        <v>1.454545454545455</v>
+        <v>0.6875</v>
       </c>
       <c r="F33" t="n">
-        <v>1.333333333333333</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="G33" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
@@ -1600,22 +1728,22 @@
         <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>0.02777777777777768</v>
+        <v>0.004649196956889257</v>
       </c>
       <c r="C34" t="n">
-        <v>0.04444444444444473</v>
+        <v>0.00805860805860803</v>
       </c>
       <c r="D34" t="n">
-        <v>0.05454545454545445</v>
+        <v>0.01057692307692304</v>
       </c>
       <c r="E34" t="n">
-        <v>0.06060606060606055</v>
+        <v>0.01244343891402711</v>
       </c>
       <c r="F34" t="n">
-        <v>0.06410256410256432</v>
+        <v>0.01382604323780789</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.5208333333333333</v>
+        <v>-1.282051282051282</v>
       </c>
     </row>
     <row r="35">
@@ -1626,19 +1754,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0007182940516266834</v>
+        <v>6.235827664417652e-05</v>
       </c>
       <c r="D35" t="n">
-        <v>0.001616161616161224</v>
+        <v>0.0001540616246502556</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002486402486402195</v>
+        <v>0.0002567693744168799</v>
       </c>
       <c r="F35" t="n">
-        <v>0.003256003256002379</v>
+        <v>0.0003603780693568516</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1388888888888931</v>
+        <v>0.4365079365079017</v>
       </c>
     </row>
     <row r="36">
@@ -1652,16 +1780,16 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>2.542911633731304e-05</v>
+        <v>1.321607074509081e-06</v>
       </c>
       <c r="E36" t="n">
-        <v>7.265461810686095e-05</v>
+        <v>4.17349602472466e-06</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0001332001331979336</v>
+        <v>8.346992049342201e-06</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.03977272727288406</v>
+        <v>-0.1617647058786917</v>
       </c>
     </row>
     <row r="37">
@@ -1678,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1.064536530522269e-06</v>
+        <v>3.660961466977027e-08</v>
       </c>
       <c r="F37" t="n">
-        <v>3.659344319350037e-06</v>
+        <v>1.394651981206457e-07</v>
       </c>
       <c r="G37" t="n">
-        <v>0.01165501165510256</v>
+        <v>0.06148950800282804</v>
       </c>
     </row>
     <row r="38">
@@ -1701,36 +1829,36 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>3.659344320656771e-06</v>
+        <v>1.394651979722354e-07</v>
       </c>
       <c r="F38" t="n">
-        <v>1.262832549007585e-05</v>
+        <v>5.325034821132408e-07</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03663003663236716</v>
+        <v>0.2108211703753038</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2.285714285714286</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="B41" t="n">
-        <v>2</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="C41" t="n">
-        <v>1.777777777777778</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="D41" t="n">
-        <v>1.6</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="E41" t="n">
-        <v>1.454545454545455</v>
+        <v>0.6875</v>
       </c>
       <c r="F41" t="n">
-        <v>1.333333333333333</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="G41" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
@@ -1738,22 +1866,22 @@
         <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>0.02777777777777768</v>
+        <v>0.004649196956889257</v>
       </c>
       <c r="C42" t="n">
-        <v>0.04444444444444473</v>
+        <v>0.00805860805860803</v>
       </c>
       <c r="D42" t="n">
-        <v>0.05454545454545445</v>
+        <v>0.01057692307692304</v>
       </c>
       <c r="E42" t="n">
-        <v>0.06060606060606055</v>
+        <v>0.01244343891402711</v>
       </c>
       <c r="F42" t="n">
-        <v>0.06410256410256432</v>
+        <v>0.01382604323780789</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.5208333333333333</v>
+        <v>-1.282051282051282</v>
       </c>
     </row>
     <row r="43">
@@ -1764,19 +1892,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0007182940516266834</v>
+        <v>6.235827664417652e-05</v>
       </c>
       <c r="D43" t="n">
-        <v>0.001616161616161224</v>
+        <v>0.0001540616246502556</v>
       </c>
       <c r="E43" t="n">
-        <v>0.002486402486402195</v>
+        <v>0.0002567693744168799</v>
       </c>
       <c r="F43" t="n">
-        <v>0.003256003256002379</v>
+        <v>0.0003603780693568516</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1388888888888931</v>
+        <v>0.4365079365079017</v>
       </c>
     </row>
     <row r="44">
@@ -1790,16 +1918,16 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>2.542911633731304e-05</v>
+        <v>1.321607074509081e-06</v>
       </c>
       <c r="E44" t="n">
-        <v>7.265461810686095e-05</v>
+        <v>4.17349602472466e-06</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0001332001331979336</v>
+        <v>8.346992049342201e-06</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.03977272727288406</v>
+        <v>-0.1617647058786917</v>
       </c>
     </row>
     <row r="45">
@@ -1816,13 +1944,13 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>1.064536530522269e-06</v>
+        <v>3.660961466977027e-08</v>
       </c>
       <c r="F45" t="n">
-        <v>3.659344319350037e-06</v>
+        <v>1.394651981206457e-07</v>
       </c>
       <c r="G45" t="n">
-        <v>0.01165501165510256</v>
+        <v>0.06148950800282804</v>
       </c>
     </row>
     <row r="46">
@@ -1842,40 +1970,40 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>4.932940266910969e-08</v>
+        <v>1.207492205053604e-09</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.003434065899054449</v>
+        <v>-0.0234245731045081</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>10394.99893309856</v>
+        <v>4826635.07186433</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-80437.49100443964</v>
+        <v>-32908874.39861527</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>241312.4711693416</v>
+        <v>88178904.4599787</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-351914.018185676</v>
+        <v>-116279870.9840722</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>250249.9671072813</v>
+        <v>75581914.37706153</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-69614.99051771162</v>
+        <v>-19399357.61611664</v>
       </c>
     </row>
   </sheetData>
